--- a/medicine/Enfance/Rafle_de_l'avenue_Secrétan/Rafle_de_l'avenue_Secrétan.xlsx
+++ b/medicine/Enfance/Rafle_de_l'avenue_Secrétan/Rafle_de_l'avenue_Secrétan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rafle_de_l%27avenue_Secr%C3%A9tan</t>
+          <t>Rafle_de_l'avenue_Secrétan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La rafle de l'avenue Secrétan prend place dans la nuit du 21 au 22 juillet 1944 au no 70 de l'avenue Secrétan dans le 19e arrondissement de Paris, en France, dans un centre de l'Union générale des israélites de France (UGIF). Les victimes sont déportées par le Convoi no 77, en date du 31 juillet 1944, le dernier grand convoi au départ de la gare de Bobigny, de Drancy vers Auschwitz.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rafle_de_l%27avenue_Secr%C3%A9tan</t>
+          <t>Rafle_de_l'avenue_Secrétan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>École Lucien-de-Hirsch</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’École Lucien-de-Hirsch[1],[2] est la plus ancienne[3] école juive de France : elle a été fondée à Paris en 1901.
-Le 20 avril 1944, le centre Lamarck ayant été bombardé, le bâtiment devient un centre d'accueil de l'Union générale des israélites de France (UGIF) pour les enfants orphelins[4] ; les jeunes pensionnaires du centre ainsi que leurs moniteurs (125 enfants et 52 adultes) sont ainsi transférés à l’école Lucien-de-Hirsch[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’École Lucien-de-Hirsch, est la plus ancienne école juive de France : elle a été fondée à Paris en 1901.
+Le 20 avril 1944, le centre Lamarck ayant été bombardé, le bâtiment devient un centre d'accueil de l'Union générale des israélites de France (UGIF) pour les enfants orphelins ; les jeunes pensionnaires du centre ainsi que leurs moniteurs (125 enfants et 52 adultes) sont ainsi transférés à l’école Lucien-de-Hirsch.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rafle_de_l%27avenue_Secr%C3%A9tan</t>
+          <t>Rafle_de_l'avenue_Secrétan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Déroulement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plus généralement, la rafle du 22 juillet 1944 concerne six centres UGIF situés à Paris et en région parisienne : Secrétan, Vauquelin, École du travail, Saint-Mandé, Louveciennes[4]. Le lendemain, une seconde rafle est opérée dans les deux maisons de La Varenne-Saint-Hilaire. Le mardi 25 juillet, c’est la pouponnière de Neuilly qui à son tour est victime de la mesure[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plus généralement, la rafle du 22 juillet 1944 concerne six centres UGIF situés à Paris et en région parisienne : Secrétan, Vauquelin, École du travail, Saint-Mandé, Louveciennes. Le lendemain, une seconde rafle est opérée dans les deux maisons de La Varenne-Saint-Hilaire. Le mardi 25 juillet, c’est la pouponnière de Neuilly qui à son tour est victime de la mesure.
 La rafle de l'avenue Secrétan se déroule le 22 juillet 1944 avant le lever du jour.
 </t>
         </is>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rafle_de_l%27avenue_Secr%C3%A9tan</t>
+          <t>Rafle_de_l'avenue_Secrétan</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,12 +592,49 @@
           <t>Déportés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une plaque commémorative en granit est apposée le 28 mars 1954 sur la façade du bâtiment Lucien-de-Hirsch, intitulée « Souviens-toi », qui donne la liste des enfants et adultes déportés de l'école[6].
-La liste non-exhaustive des noms des déportés par le Convoi No. 77[7] de Drancy[8] vers Auschwitz sont par ordre alphabétique[9],[10],[11]:
-Enfants
-Célestine Ajzykowicz (11 ans)
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une plaque commémorative en granit est apposée le 28 mars 1954 sur la façade du bâtiment Lucien-de-Hirsch, intitulée « Souviens-toi », qui donne la liste des enfants et adultes déportés de l'école.
+La liste non-exhaustive des noms des déportés par le Convoi No. 77 de Drancy vers Auschwitz sont par ordre alphabétique:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rafle_de_l'avenue_Secrétan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rafle_de_l%27avenue_Secr%C3%A9tan</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Déportés</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Enfants</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Célestine Ajzykowicz (11 ans)
 Elle est née le 29 novembre 1932 à Yutz, en Moselle. Elle est la sœur de Léon Ajzykowicz (12 ans). Son père, Henri Ajzykowicz (40 ans), né le 2 février 1902 à Częstochowa, en Pologne, est déporté par le Convoi No. 8, en date du 20 juillet 1942, d'Angers vers Auschwitz. Sa mère, Reszka Ajzykowicz (née Tenenberck) (32 ans), née le 31 mai 1909 à Częstochowa, en Pologne, est déportée par le Convoi No. 40, en date du 4 novembre 1942, de Drancy vers Auschwitz. La dernière adresse des parents est: Juillaguet (Charente). Ils ont été arrêtés à Poitiers. La dernière adresse des enfants est à Bazac (Charente).
 Léon Ajzykowicz (12 ans)
 Il est né le 17 décembre 1931 à Moyeuvre. Il est le frère de Célestine Ajzykowicz (11 ans). Son père, Henri Ajzykowicz (40 ans), né le 2 février 1902 à Częstochowa, en Pologne, est déporté par le Convoi No. 8, en date du 20 juillet 1942, d'Angers vers Auschwitz. Sa mère, Reszka Ajzykowicz (née Tenenberck) (32 ans), née le 31 mai 1909 à Częstochowa, en Pologne est déportée par le Convoi No. 40, en date du 4 novembre 1942, de Drancy vers Auschwitz. La dernière adresse des parents est: Juillaguet (Charente). Ils ont été arrêtés à Poitiers. La dernière adresse des enfants est à Bazac (Charente).
@@ -700,7 +753,82 @@
 Esther Pinto (15 ans)
 Elle est née le 29 mai 1929 dans le 12e arrondissement de Paris. Elle est la sœur de Maurice Pinto (11 ans). Son père, Menahem Pinto (46 ans), né le 15 mai 1898 à Constantinople (aujourd'hui Istanbul) en Turquie, est déporté aussi par le Convoi No. 77. Leur dernière adresse est au 48 bis rue des Haies dans le 20e arrondissement de Paris.
 Maurice Pinto (11 ans)
-Il est né le 16 avril 1933 dans le 14e arrondissement de Paris. Il est le frère de Esther Pinto (15 ans). Son père, Menahem Pinto (46 ans), né le 15 mai 1898 à Constantinople (aujourd'hui Istanbul) en Turquie, est déporté aussi par le Convoi No. 77. Leur dernière adresse est au 48 bis rue des Haies dans le 20e arrondissement </t>
+Il est né le 16 avril 1933 dans le 14e arrondissement de Paris. Il est le frère de Esther Pinto (15 ans). Son père, Menahem Pinto (46 ans), né le 15 mai 1898 à Constantinople (aujourd'hui Istanbul) en Turquie, est déporté aussi par le Convoi No. 77. Leur dernière adresse est au 48 bis rue des Haies dans le 20e arrondissement de Paris.
+Albert Plewinski (14 ans)
+Il est né le 24 juillet 1930 à Nancy. Son père, Najman Plewinski (45 ans), né le 27 octobre 1897 à Kalisz, en Pologne, est déporté par le Convoi No. 21, en date du 19 août 1942, de Drancy vers Auschwitz. Sa mère, Malka Plewinski (née Sendziejwski) (40 ans), née le 16 mars 1902 à Łask, en Pologne est déportée par l</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rafle_de_l'avenue_Secrétan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rafle_de_l%27avenue_Secr%C3%A9tan</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Déportés</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Adultes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Rosalie Bernas (née Grunstein) (62 ans)
+Elle est née le 21 janvier 1882 à Varsovie, en Pologne. Sa dernière adresse est au 2 Rue du Docteur-Landouzy dans le 13e arrondissement de Paris.
+Fernande Bloch (née Hayem) (53 ans)
+Elle est née 8 novembre 1891 à Verdun. Sa dernière adresse est au 70 Avenue Secrétan dans le 19e arrondissement de Paris.
+Madeleine Bloch (23 ans)
+Elle est née le 9 octobre 1921 à Paris. Sa dernière adresse est au 70 Avenue Secrétan dans le 19e arrondissement de Paris.
+Paulette Bloch (20 ans)
+Elle est née le 27 avril 1925 à Paris. Sa dernière adresse est au 70 Avenue Secrétan dans le 19e arrondissement de Paris.
+Denise Cahn (née Lévy) (35 ans)
+Elle est née le 27 août 1908 à Paris. Sa dernière adresse est au 4 rue Turgot dans le 9e arrondissement de Paris.
+Tauba Goldstein (24 ans)
+Elle est née le 19 avril 1920 à Copenhague au Danemark. Sa dernière adresse est au 10 rue des Deux-Ponts dans le 4e arrondissement de Paris.
+Louis Levis (68 ans)
+Il est né le 9 janvier 1876 à Belfort. Il est l'époux de Marguerite Levis (54 ans). Leur dernière adresse est au 26 rue Vaubecour, à Lyon (Rhône).
+Marguerite Levis (née Schwob) (54 ans)
+Elle est née le 14 septembre 1889 à Mulhouse. Elle est l'épouse de Louis Levis (68 ans). Leur dernière adresse est au 26 rue Vaubecour, à Lyon (Rhône).
+Pierre Lévy (20 ans)
+Il est né le 19 février 1924 à Strasbourg. Sa dernière adresse est au 20 rue Sébastopol à Périgueux (Dordogne).
+Robert Lewy (35 ans)
+Il est né le 24 avril 1909 à Paris. Sa dernière adresse est au 4 rue de la Porte de France à Vichy (Allier).
+Joseph Lindner (41 ans)
+Il est né le 16 octobre 1902 à Paris. Il est le père de Maryse Lindner (14 ans), à Secrétan. Son épouse, Nelly Lindner (née Mittelchtein) (38 ans), née à Iași, en Roumanie. est aussi déportée par le Convoi No. 77. Leur dernière adresse est au Castel Jeanne d'Arc, Le Cannet (Alpes-Maritimes).
+Anna Mechinino (46 ans)
+Elle est née le 20 novembre 1898 à Oran en Algérie. Sa dernière adresse est au Centre Secrétan, 70 avenue Secrétan dans le 19e arrondissement de Paris.
+Ida Rechnic (20 ans)
+Elle est née le 16 février 1924 dans le 12e arrondissement de Paris. Son père, Icek Rechnic (47 ans), né le 17 juillet 1895 à Będzin, en Pologne, est déporté par le Convoi No. 7, en date du 19 juillet 1942, de Drancy vers Auschwitz. Leur dernière adresse est au 12 Boulevard de la Villette dans le 20e arrondissement de Paris.
+Esther Regenman (née Freimowitz) (35 ans)
+Elle est née le 11 mars 1909 à Paris. Son époux, Chaim Regenmann (36 ans), né le 17 septembre 1905 à Varsovie en Pologne, est déporté par le Convoi No. 1, en date du 27 mars 1942, de Drancy/Compiègne vers Auschwitz. Leur dernière adresse est au 24 rue Oberkampf dans le 11e arrondissement de Paris.
+Bernard Roza (20 ans)
+Il est né le 27 mars 1924 à Paris. Sa dernière adresse est au 21 rue Paul-Albert dans le 18e arrondissement de Paris.
+Marcelle Sidelski (née Polak) (39 ans)
+Elle est née le 29 mars 1905 à Paris. Sa dernière adresse est au 121 rue Marcadet dans le 18e arrondissement de Paris.
+Sura Zaks (41 ans)
+Elle est née le 6 juin 1903 à Piotrków Trybunalski, en Pologne. Sa dernière adresse est au 30 rue de Pali-Kao dans le 20e arrondissement de Paris.
+Marie Zalmanski (38 ans)
+Elle est née le 20 décembre 1905. Sa dernière adresse est au 70 Avenue Secrétan dans le 19e arrondissement de Paris.
+Syma Zylberstein (née Latouwicka) (40 ans)
+Elle est née le 14 mai 1904 à Kołbiel, en Pologne. Sa dernière adresse est au 8 rue de la Cour-des-Noues dans le 20e arrondissement de Paris.</t>
         </is>
       </c>
     </row>
